--- a/src/main/resources/public/SecondYear.xlsx
+++ b/src/main/resources/public/SecondYear.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="54">
   <si>
     <t>CSE</t>
   </si>
@@ -160,6 +160,27 @@
   </si>
   <si>
     <t>EE491   /   EE494</t>
+  </si>
+  <si>
+    <t>ECE491   /   ECE492</t>
+  </si>
+  <si>
+    <t>ECE492   /   ECE493</t>
+  </si>
+  <si>
+    <t>ECE493   /   ECE491</t>
+  </si>
+  <si>
+    <t>EE492   /   EE494</t>
+  </si>
+  <si>
+    <t>EE491   /   EE493</t>
+  </si>
+  <si>
+    <t>EE493   /   EE491</t>
+  </si>
+  <si>
+    <t>EE494   /   EE492</t>
   </si>
 </sst>
 </file>
@@ -500,27 +521,26 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4"/>
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -530,25 +550,27 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B6"/>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" t="s">
-        <v>4</v>
+      <c r="G6"/>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -558,25 +580,26 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
         <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -585,30 +608,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10"/>
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
         <v>5</v>
       </c>
-      <c r="F10"/>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10"/>
       <c r="H10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -621,25 +642,25 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
+      <c r="C12"/>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
       </c>
-      <c r="G12"/>
-      <c r="H12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12"/>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
       <c r="J12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -658,27 +679,30 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16"/>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="B16"/>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
         <v>20</v>
       </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s">
-        <v>22</v>
+      <c r="H16"/>
+      <c r="I16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -687,30 +711,26 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18"/>
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18"/>
-      <c r="I18" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -724,24 +744,23 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" t="s">
         <v>3</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20"/>
-      <c r="J20" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -763,13 +782,13 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -778,27 +797,29 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24"/>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
         <v>11</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="s">
         <v>5</v>
       </c>
-      <c r="H24" t="s">
-        <v>20</v>
+      <c r="H24"/>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -818,28 +839,26 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28"/>
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
       <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
         <v>24</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28"/>
-      <c r="G28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28"/>
-      <c r="I28" t="s">
-        <v>5</v>
-      </c>
-      <c r="J28" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="29">
@@ -849,26 +868,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B30"/>
       <c r="C30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" t="s">
         <v>8</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="31">
@@ -878,25 +899,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33">
@@ -906,13 +927,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
         <v>26</v>
@@ -921,10 +942,10 @@
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
@@ -934,25 +955,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
         <v>28</v>
-      </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -972,25 +993,26 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E40" t="s">
-        <v>44</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E40"/>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="H40" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41">
@@ -1000,28 +1022,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" t="s">
         <v>3</v>
       </c>
-      <c r="C42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42"/>
+      <c r="F42" t="s">
+        <v>38</v>
+      </c>
       <c r="G42" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" t="s">
-        <v>35</v>
-      </c>
-      <c r="I42"/>
-      <c r="J42" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43">
@@ -1031,25 +1050,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" t="s">
         <v>3</v>
       </c>
-      <c r="E44" t="s">
-        <v>39</v>
-      </c>
       <c r="F44" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" t="s">
         <v>35</v>
-      </c>
-      <c r="G44" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="45">
@@ -1059,27 +1078,26 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B46" t="s">
         <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
         <v>5</v>
       </c>
-      <c r="F46"/>
+      <c r="F46" t="s">
+        <v>44</v>
+      </c>
       <c r="G46" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="H46" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47">
@@ -1089,25 +1107,28 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48"/>
+      <c r="G48" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" t="s">
         <v>37</v>
       </c>
-      <c r="B48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" t="s">
-        <v>46</v>
-      </c>
-      <c r="G48" t="s">
-        <v>46</v>
+      <c r="J48" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/public/SecondYear.xlsx
+++ b/src/main/resources/public/SecondYear.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="86">
   <si>
     <t>CSE</t>
   </si>
@@ -181,6 +181,102 @@
   </si>
   <si>
     <t>EE494   /   EE492</t>
+  </si>
+  <si>
+    <t>CS491  /  CS492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M401  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS401  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS403  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH401  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS402  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B401  /  </t>
+  </si>
+  <si>
+    <t>CS492  /  CS491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M401(T)  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT402  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT401  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT403  /  </t>
+  </si>
+  <si>
+    <t>IT491  /  IT492</t>
+  </si>
+  <si>
+    <t>IT492  /  IT491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE403  /  </t>
+  </si>
+  <si>
+    <t>ECE492  /  ECE491</t>
+  </si>
+  <si>
+    <t>M491  /  HU491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE404  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE401  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE402  /  </t>
+  </si>
+  <si>
+    <t>ECE491  /  ECE493</t>
+  </si>
+  <si>
+    <t>HU491  /  M491</t>
+  </si>
+  <si>
+    <t>ECE493  /  ECE492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE404  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU401  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE402  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE403  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE401  /  </t>
+  </si>
+  <si>
+    <t>EE493  /  EE492</t>
+  </si>
+  <si>
+    <t>EE491  /  EE494</t>
+  </si>
+  <si>
+    <t>EE492  /  EE491</t>
+  </si>
+  <si>
+    <t>EE494  /  EE493</t>
   </si>
 </sst>
 </file>
@@ -522,25 +618,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -550,27 +646,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -580,26 +674,25 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8"/>
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
@@ -609,27 +702,25 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10"/>
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -638,29 +729,26 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12"/>
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12"/>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12"/>
-      <c r="I12" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -679,29 +767,25 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
       <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16"/>
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16"/>
-      <c r="I16" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16"/>
-      <c r="K16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -712,25 +796,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
@@ -739,28 +823,26 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20"/>
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20"/>
-      <c r="H20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" t="s">
-        <v>3</v>
+        <v>64</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -770,25 +852,25 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -797,29 +879,26 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24"/>
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24"/>
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
       <c r="G24" t="s">
         <v>5</v>
-      </c>
-      <c r="H24"/>
-      <c r="I24" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -839,26 +918,25 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28"/>
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
@@ -868,28 +946,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30"/>
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
-      <c r="D30"/>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
       <c r="E30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30"/>
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>72</v>
+      </c>
       <c r="G30" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
@@ -899,25 +974,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -927,25 +1002,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="G34" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
@@ -955,25 +1030,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
@@ -993,26 +1068,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40"/>
+        <v>58</v>
+      </c>
+      <c r="E40" t="s">
+        <v>78</v>
+      </c>
       <c r="F40" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
@@ -1022,25 +1096,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
@@ -1050,25 +1124,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
@@ -1078,26 +1152,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46"/>
+        <v>80</v>
+      </c>
+      <c r="D46" t="s">
+        <v>58</v>
+      </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
-      </c>
-      <c r="H46" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47">
@@ -1107,28 +1180,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48"/>
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
       <c r="C48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48"/>
+        <v>84</v>
+      </c>
+      <c r="D48" t="s">
+        <v>84</v>
+      </c>
       <c r="E48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48"/>
+        <v>85</v>
+      </c>
+      <c r="F48" t="s">
+        <v>85</v>
+      </c>
       <c r="G48" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" t="s">
-        <v>38</v>
-      </c>
-      <c r="I48" t="s">
-        <v>37</v>
-      </c>
-      <c r="J48" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/public/SecondYear.xlsx
+++ b/src/main/resources/public/SecondYear.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="94">
   <si>
     <t>CSE</t>
   </si>
@@ -277,6 +277,30 @@
   </si>
   <si>
     <t>EE494  /  EE493</t>
+  </si>
+  <si>
+    <t>ECE491  /  ECE492</t>
+  </si>
+  <si>
+    <t>ECE492  /  ECE493</t>
+  </si>
+  <si>
+    <t>ECE493  /  ECE491</t>
+  </si>
+  <si>
+    <t>EE493  /  EE494</t>
+  </si>
+  <si>
+    <t>EE494  /  EE492</t>
+  </si>
+  <si>
+    <t>EE491  /  EE493</t>
+  </si>
+  <si>
+    <t>EE492  /  EE493</t>
+  </si>
+  <si>
+    <t>EE494  /  EE491</t>
   </si>
 </sst>
 </file>
@@ -618,25 +642,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -652,19 +676,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
         <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -674,25 +698,25 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +726,25 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -733,22 +757,22 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -768,25 +792,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
         <v>55</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
         <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -796,25 +820,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
         <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
@@ -824,25 +848,25 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -852,25 +876,25 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
         <v>58</v>
       </c>
-      <c r="B22" t="s">
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
         <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -880,25 +904,25 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
         <v>65</v>
-      </c>
-      <c r="E24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" t="s">
-        <v>60</v>
-      </c>
-      <c r="G24" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -918,25 +942,25 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
@@ -946,25 +970,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
         <v>68</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
@@ -974,16 +998,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
         <v>72</v>
@@ -992,7 +1016,7 @@
         <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
@@ -1005,22 +1029,22 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1030,25 +1054,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
         <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" t="s">
-        <v>60</v>
       </c>
       <c r="D36" t="s">
         <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37">
@@ -1068,22 +1092,22 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
         <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="G40" t="s">
         <v>80</v>
@@ -1096,25 +1120,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="E42" t="s">
         <v>78</v>
       </c>
       <c r="F42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
@@ -1124,25 +1148,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G44" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45">
@@ -1152,25 +1176,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" t="s">
         <v>77</v>
       </c>
-      <c r="B46" t="s">
+      <c r="F46" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" t="s">
         <v>81</v>
-      </c>
-      <c r="C46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="47">
@@ -1180,25 +1204,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/public/SecondYear.xlsx
+++ b/src/main/resources/public/SecondYear.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="154">
   <si>
     <t>CSE</t>
   </si>
@@ -301,6 +301,186 @@
   </si>
   <si>
     <t>EE494  /  EE491</t>
+  </si>
+  <si>
+    <t>CS402[AP]  /  []</t>
+  </si>
+  <si>
+    <t>B401[PD]  /  []</t>
+  </si>
+  <si>
+    <t>M401[SMa]  /  []</t>
+  </si>
+  <si>
+    <t>CS401[AH]  /  []</t>
+  </si>
+  <si>
+    <t>CS403[MDu]  /  []</t>
+  </si>
+  <si>
+    <t>CH401[SC]  /  []</t>
+  </si>
+  <si>
+    <t>CS491[AH, MDu]  /  CS492[AP, BDu]</t>
+  </si>
+  <si>
+    <t>CS492[AP, BDu]  /  CS491[AH, MDu]</t>
+  </si>
+  <si>
+    <t>M401(T)[DC, GY]  /  []</t>
+  </si>
+  <si>
+    <t>IT403[SU]  /  []</t>
+  </si>
+  <si>
+    <t>IT401[RCh]  /  []</t>
+  </si>
+  <si>
+    <t>M401[ARC]  /  []</t>
+  </si>
+  <si>
+    <t>IT402[SSR]  /  []</t>
+  </si>
+  <si>
+    <t>IT492[RCh, RG]  /  IT491[SSR, KDa]</t>
+  </si>
+  <si>
+    <t>IT491[SSR, KDa]  /  IT492[RCh, RG]</t>
+  </si>
+  <si>
+    <t>ECE404[SDe]  /  []</t>
+  </si>
+  <si>
+    <t>M401[SLa]  /  []</t>
+  </si>
+  <si>
+    <t>ECE401[SMC]  /  []</t>
+  </si>
+  <si>
+    <t>ECE403[PP]  /  []</t>
+  </si>
+  <si>
+    <t>ECE402[SG]  /  []</t>
+  </si>
+  <si>
+    <t>ECE491[PC, SMC]  /  ECE492[DK, JA]</t>
+  </si>
+  <si>
+    <t>HU491[KB]  /  M491[SLa, SRC]</t>
+  </si>
+  <si>
+    <t>ECE493[PP, BC]  /  ECE491[PC, SMC]</t>
+  </si>
+  <si>
+    <t>ECE492[DK, JA]  /  ECE493[PP, BC]</t>
+  </si>
+  <si>
+    <t>M491[SLa, SRC]  /  HU491[KB]</t>
+  </si>
+  <si>
+    <t>CH401[PD]  /  []</t>
+  </si>
+  <si>
+    <t>EE492[RND, JA]  /  EE494[BDC, NCS]</t>
+  </si>
+  <si>
+    <t>EE401[BDC]  /  []</t>
+  </si>
+  <si>
+    <t>EE403[KR]  /  []</t>
+  </si>
+  <si>
+    <t>EE404[ArD]  /  []</t>
+  </si>
+  <si>
+    <t>HU401[ACh]  /  []</t>
+  </si>
+  <si>
+    <t>EE402[RND]  /  []</t>
+  </si>
+  <si>
+    <t>EE494[BDC, NCS]  /  EE493[ArD, SDG]</t>
+  </si>
+  <si>
+    <t>EE491[KR, IB]  /  EE492[RND, JA]</t>
+  </si>
+  <si>
+    <t>EE493[ArD, SDG]  /  EE491[KR, IB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B401[PD]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS402[AP]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS403[MDu]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M401[SMa]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS401[AH]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH401[SC]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M401(T)[DC, GY]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT402[SSR]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT403[SU]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M401[ARC]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT401[RCh]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE403[PP]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE401[SMC]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M401[SLa]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE402[SG]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE404[SDe]  /  </t>
+  </si>
+  <si>
+    <t>EE492[RND, JA]  /  EE491[KR, IB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE404[ArD]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU401[ACh]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE403[KR]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE401[BDC]  /  </t>
+  </si>
+  <si>
+    <t>EE491[KR, IB]  /  EE494[BDC, NCS]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH401[PD]  /  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE402[RND]  /  </t>
+  </si>
+  <si>
+    <t>EE493[ArD, SDG]  /  EE492[RND, JA]</t>
   </si>
 </sst>
 </file>
@@ -642,25 +822,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
@@ -670,22 +850,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -698,22 +878,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -726,25 +906,25 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -754,25 +934,25 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="G12" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
@@ -795,22 +975,22 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="F16" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
@@ -820,25 +1000,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19">
@@ -848,25 +1028,25 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="F20" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
@@ -876,25 +1056,25 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="G22" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23">
@@ -904,25 +1084,25 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25">
@@ -942,25 +1122,25 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29">
@@ -970,25 +1150,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="G30" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
@@ -998,25 +1178,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33">
@@ -1026,25 +1206,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="E34" t="s">
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="G34" t="s">
-        <v>5</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35">
@@ -1054,25 +1234,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="F36" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37">
@@ -1092,25 +1272,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="F40" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="G40" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41">
@@ -1120,25 +1300,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="F42" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="G42" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43">
@@ -1148,25 +1328,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="F44" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="G44" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45">
@@ -1176,25 +1356,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="F46" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="G46" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47">
@@ -1204,25 +1384,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="E48" t="s">
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="G48" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
